--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2790852139902757</v>
+        <v>0.2878061442228339</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.27908521399027575, 'ngram_match_score': 0.14074523507683975, 'weighted_ngram_match_score': 0.1491836607513728, 'syntax_match_score': 0.5357142857142857, 'dataflow_match_score': 0.29069767441860467}</t>
+          <t>{'codebleu': 0.2878061442228339, 'ngram_match_score': 0.14074523507683975, 'weighted_ngram_match_score': 0.1491836607513728, 'syntax_match_score': 0.5357142857142857, 'dataflow_match_score': 0.32558139534883723}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2878061442228339</v>
+        <v>0.296527074455392</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2878061442228339, 'ngram_match_score': 0.14074523507683975, 'weighted_ngram_match_score': 0.1491836607513728, 'syntax_match_score': 0.5357142857142857, 'dataflow_match_score': 0.32558139534883723}</t>
+          <t>{'codebleu': 0.296527074455392, 'ngram_match_score': 0.14074523507683975, 'weighted_ngram_match_score': 0.1491836607513728, 'syntax_match_score': 0.5357142857142857, 'dataflow_match_score': 0.36046511627906974}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
